--- a/backlog.xlsx
+++ b/backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Рабочий стол\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44995422-9C7A-4918-9BF8-F1FB9EAA02AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF49BE84-0055-420C-AC6D-F394FE445E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11304" yWindow="96" windowWidth="7380" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>Нарисовать диаграмму прецедентов</t>
   </si>
@@ -45,39 +45,24 @@
     <t>Разработать отчет о работе</t>
   </si>
   <si>
-    <t>Реализовать выключение робота</t>
-  </si>
-  <si>
     <t>H</t>
   </si>
   <si>
     <t>L</t>
   </si>
   <si>
-    <t>Нарисовать диаграммы последовательности для прецедента</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
     <t>Комментарии</t>
   </si>
   <si>
-    <t>Реализовать обнаружение граффити</t>
-  </si>
-  <si>
     <t>Разработать концептуальную модель</t>
   </si>
   <si>
     <t>Реализовать включение робота</t>
   </si>
   <si>
-    <t>Реализовать поворот робота направо</t>
-  </si>
-  <si>
-    <t>Реализовать поворот робота налево</t>
-  </si>
-  <si>
     <t>Реализовать движение вперед</t>
   </si>
   <si>
@@ -87,16 +72,19 @@
     <t>Реализовать конец закрашивания</t>
   </si>
   <si>
-    <t>Реализовать остановку робота</t>
-  </si>
-  <si>
-    <t>Реализовать поворот краскопульта вертикально</t>
-  </si>
-  <si>
-    <t>Реализовать поворот краскопульта горизонтально</t>
-  </si>
-  <si>
-    <t>Н</t>
+    <t>доли от рабочего дня(8 ч)</t>
+  </si>
+  <si>
+    <t>Реализовать поворот робота</t>
+  </si>
+  <si>
+    <t>Реализовать поворот краскопульта</t>
+  </si>
+  <si>
+    <t>Реализовать получение координат граффити</t>
+  </si>
+  <si>
+    <t>Нарисовать диаграммы последовательности для прецедентов</t>
   </si>
 </sst>
 </file>
@@ -147,25 +135,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -449,291 +448,266 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33.109375" customWidth="1"/>
-    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.77734375" customWidth="1"/>
     <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="10"/>
+      <c r="B1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="10"/>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="B8" s="1">
         <v>0.1</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C8" s="1">
         <v>0.1</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C10" s="1">
         <v>0.3</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B11" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1">
         <v>0.1</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C14" s="1">
         <v>0.1</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="6"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A18">
     <sortCondition ref="A2:A18"/>
   </sortState>
+  <mergeCells count="4">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>